--- a/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample14/Sample-14.xlsx
+++ b/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample14/Sample-14.xlsx
@@ -198,16 +198,16 @@
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="mf2lhgsq" xfId="1"/>
-    <cellStyle name="mf2lhgsq_Alternate" xfId="2"/>
-    <cellStyle name="xcpbbyc0" xfId="3"/>
-    <cellStyle name="xcpbbyc0_Alternate" xfId="4"/>
-    <cellStyle name="5zem2jia" xfId="5"/>
-    <cellStyle name="5zem2jia_Alternate" xfId="6"/>
-    <cellStyle name="5qshyhui" xfId="7"/>
-    <cellStyle name="5qshyhui_Alternate" xfId="8"/>
-    <cellStyle name="ytcjnoxs" xfId="9"/>
-    <cellStyle name="ytcjnoxs_Alternate" xfId="10"/>
+    <cellStyle name="bjxty3d1" xfId="1"/>
+    <cellStyle name="bjxty3d1_Alternate" xfId="2"/>
+    <cellStyle name="1bep3oci" xfId="3"/>
+    <cellStyle name="1bep3oci_Alternate" xfId="4"/>
+    <cellStyle name="tro31prp" xfId="5"/>
+    <cellStyle name="tro31prp_Alternate" xfId="6"/>
+    <cellStyle name="f3dpampx" xfId="7"/>
+    <cellStyle name="f3dpampx_Alternate" xfId="8"/>
+    <cellStyle name="uia1vzz3" xfId="9"/>
+    <cellStyle name="uia1vzz3_Alternate" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>

--- a/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample14/Sample-14.xlsx
+++ b/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample14/Sample-14.xlsx
@@ -198,16 +198,16 @@
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="bjxty3d1" xfId="1"/>
-    <cellStyle name="bjxty3d1_Alternate" xfId="2"/>
-    <cellStyle name="1bep3oci" xfId="3"/>
-    <cellStyle name="1bep3oci_Alternate" xfId="4"/>
-    <cellStyle name="tro31prp" xfId="5"/>
-    <cellStyle name="tro31prp_Alternate" xfId="6"/>
-    <cellStyle name="f3dpampx" xfId="7"/>
-    <cellStyle name="f3dpampx_Alternate" xfId="8"/>
-    <cellStyle name="uia1vzz3" xfId="9"/>
-    <cellStyle name="uia1vzz3_Alternate" xfId="10"/>
+    <cellStyle name="emqlcaa4" xfId="1"/>
+    <cellStyle name="emqlcaa4_Alternate" xfId="2"/>
+    <cellStyle name="in4cujn2" xfId="3"/>
+    <cellStyle name="in4cujn2_Alternate" xfId="4"/>
+    <cellStyle name="br5dovsc" xfId="5"/>
+    <cellStyle name="br5dovsc_Alternate" xfId="6"/>
+    <cellStyle name="nomoszal" xfId="7"/>
+    <cellStyle name="nomoszal_Alternate" xfId="8"/>
+    <cellStyle name="seo1zt0z" xfId="9"/>
+    <cellStyle name="seo1zt0z_Alternate" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
